--- a/reportes/10.10.2.28.xlsx
+++ b/reportes/10.10.2.28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>HOSPITAL GENERAL SAN JUAN DE DIOS</t>
   </si>
@@ -31,10 +31,10 @@
     <t>No. Expediente Clínico</t>
   </si>
   <si>
-    <t>MUCUR  ORDOÑEZ  YESICA  VANESA</t>
-  </si>
-  <si>
-    <t>/201765978</t>
+    <t xml:space="preserve">BONILLA    RUMILDA  </t>
+  </si>
+  <si>
+    <t>/201770907</t>
   </si>
   <si>
     <t>Fecha de Nacimiento ( Dia Mes Año)</t>
@@ -49,13 +49,13 @@
     <t>Sexo M  (   )   F  (    )</t>
   </si>
   <si>
-    <t>2000-12-05</t>
-  </si>
-  <si>
-    <t>16 AÑOS</t>
-  </si>
-  <si>
-    <t>CAÌTAL</t>
+    <t>1976-07-05</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>TECPAN GUATEMALA, CHIMALTENANGO</t>
   </si>
   <si>
     <t>FEMENINO</t>
@@ -73,7 +73,7 @@
     <t>Documento de Identificación</t>
   </si>
   <si>
-    <t>SOLTERO</t>
+    <t>CASADO</t>
   </si>
   <si>
     <t>AMA DE CASA</t>
@@ -82,7 +82,7 @@
     <t>GUATEMALTECA</t>
   </si>
   <si>
-    <t>3008934260101</t>
+    <t>NO PRESENTO</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a:</t>
@@ -97,28 +97,28 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>MARIO NAJERA</t>
-  </si>
-  <si>
-    <t>ESPOSO</t>
-  </si>
-  <si>
-    <t>25 av lte 75 z 6</t>
-  </si>
-  <si>
-    <t>55778656</t>
+    <t>JUVENTINO UMUL</t>
+  </si>
+  <si>
+    <t>ESPÒSO</t>
+  </si>
+  <si>
+    <t>30 CALLE 5-40 ZONA 10 MIXCO LA COMUNIDAD ALBOR</t>
+  </si>
+  <si>
+    <t>48975553</t>
   </si>
   <si>
     <t>Fecha de la asistencia Médica</t>
   </si>
   <si>
-    <t>Hora: 7:55:33</t>
-  </si>
-  <si>
-    <t>Area de urgencia: OBTESTRICIA</t>
-  </si>
-  <si>
-    <t>2/11/2017</t>
+    <t>Hora: 7:13:54</t>
+  </si>
+  <si>
+    <t>Area de urgencia: GINECOLOGIA</t>
+  </si>
+  <si>
+    <t>14/11/2017</t>
   </si>
   <si>
     <t>MEDICINA</t>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tipo de Consulta </t>
-  </si>
-  <si>
-    <t>consulta_externa</t>
   </si>
   <si>
     <t>URGENCIA</t>
@@ -1111,9 +1108,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="26" t="s">
-        <v>41</v>
-      </c>
+      <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
@@ -1122,11 +1117,11 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -1135,7 +1130,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -1147,7 +1142,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1169,7 +1164,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -1181,7 +1176,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1203,7 +1198,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -1215,7 +1210,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1309,13 +1304,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="F34" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
@@ -1326,7 +1321,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1338,13 +1333,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H37" s="34"/>
     </row>
@@ -1354,7 +1349,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -1424,7 +1419,7 @@
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
       <c r="E46" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
